--- a/fuentes/contenidos/grado07/guion02/SolicitudGrafica LE_07_02_REC140.xlsx
+++ b/fuentes/contenidos/grado07/guion02/SolicitudGrafica LE_07_02_REC140.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="201">
   <si>
     <t>Fecha:</t>
   </si>
@@ -626,13 +626,10 @@
     <t xml:space="preserve">La idea es tomar de la imagen solamente el arquero (al menos en la imagen que no es ampliada). Imagen proveniente del Banco de la República. </t>
   </si>
   <si>
-    <t>http://www.banrepcultural.org/coleccion-de-arte-banco-de-la-republica/obra/selva-con-p%C3%A1jaros</t>
-  </si>
-  <si>
-    <t>Selva con pájaros de Noé león</t>
-  </si>
-  <si>
     <t>silueta de hombre en el cielo.</t>
+  </si>
+  <si>
+    <t>Bosque de palmeras.</t>
   </si>
 </sst>
 </file>
@@ -642,7 +639,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -803,8 +800,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Century Gothic"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -851,6 +853,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="36">
     <border>
@@ -1298,7 +1306,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1362,8 +1370,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1684,8 +1693,12 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="24" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="63">
+  <cellStyles count="64">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1748,6 +1761,7 @@
     <cellStyle name="Hipervínculo visitado" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="61" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="63" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -2434,9 +2448,9 @@
   <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2857,22 +2871,22 @@
         <v>Diaporama F1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="11" customFormat="1" ht="65">
+    <row r="13" spans="1:16" s="11" customFormat="1">
       <c r="A13" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG04</v>
       </c>
-      <c r="B13" s="62" t="s">
-        <v>199</v>
+      <c r="B13" s="109">
+        <v>144905092</v>
       </c>
       <c r="C13" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Recurso F6B</v>
       </c>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="109" t="s">
         <v>190</v>
       </c>
-      <c r="E13" s="63" t="s">
+      <c r="E13" s="109" t="s">
         <v>155</v>
       </c>
       <c r="F13" s="13" t="str">
@@ -2891,12 +2905,10 @@
         <f ca="1">IF(OR($B13&lt;&gt;"",$J13&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 458 px</v>
       </c>
-      <c r="J13" s="64" t="s">
+      <c r="J13" s="109" t="s">
         <v>200</v>
       </c>
-      <c r="K13" s="64" t="s">
-        <v>191</v>
-      </c>
+      <c r="K13" s="64"/>
       <c r="O13" s="2" t="str">
         <f>'Definición técnica de imagenes'!A19</f>
         <v>F4</v>
@@ -2937,7 +2949,7 @@
         <v>800 x 458 px</v>
       </c>
       <c r="J14" s="64" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K14" s="64"/>
       <c r="O14" s="2" t="str">
